--- a/Code/Results/Cases/Case_4_85/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_85/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.55207905217251</v>
+        <v>16.98068156391676</v>
       </c>
       <c r="C2">
-        <v>18.02981329585491</v>
+        <v>13.36903856161564</v>
       </c>
       <c r="D2">
-        <v>10.10931233154884</v>
+        <v>14.2089050573277</v>
       </c>
       <c r="E2">
-        <v>9.568015464177906</v>
+        <v>14.98716360428322</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>44.82286981184184</v>
+        <v>48.75384679447161</v>
       </c>
       <c r="H2">
-        <v>13.25947111166288</v>
+        <v>18.95781677691406</v>
       </c>
       <c r="I2">
-        <v>18.60581180411003</v>
+        <v>26.39963883892306</v>
       </c>
       <c r="J2">
-        <v>4.974489835747494</v>
+        <v>8.869994500130813</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.24733539869483</v>
+        <v>20.42518549093617</v>
       </c>
       <c r="N2">
-        <v>12.29731157461908</v>
+        <v>19.19047448283403</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.03760593744509</v>
+        <v>16.55480072689673</v>
       </c>
       <c r="C3">
-        <v>16.75381508058097</v>
+        <v>12.97481776453427</v>
       </c>
       <c r="D3">
-        <v>9.812355490635719</v>
+        <v>14.19956032489629</v>
       </c>
       <c r="E3">
-        <v>9.430077735985538</v>
+        <v>15.00660191405924</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>42.88674969513633</v>
+        <v>48.51016893378394</v>
       </c>
       <c r="H3">
-        <v>13.01605581457151</v>
+        <v>18.9783591754774</v>
       </c>
       <c r="I3">
-        <v>18.36848249355302</v>
+        <v>26.45095992346798</v>
       </c>
       <c r="J3">
-        <v>5.015234285231271</v>
+        <v>8.889068909035265</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.39436929124517</v>
+        <v>20.30350687013461</v>
       </c>
       <c r="N3">
-        <v>12.5713175402715</v>
+        <v>19.26399298600568</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.05791480396054</v>
+        <v>16.29207405841201</v>
       </c>
       <c r="C4">
-        <v>15.93090428842594</v>
+        <v>12.73041093641418</v>
       </c>
       <c r="D4">
-        <v>9.633605537213711</v>
+        <v>14.19674896343083</v>
       </c>
       <c r="E4">
-        <v>9.351272588769469</v>
+        <v>15.02111888294094</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>41.7110119662347</v>
+        <v>48.37644988977072</v>
       </c>
       <c r="H4">
-        <v>12.87765308740168</v>
+        <v>18.99526670356897</v>
       </c>
       <c r="I4">
-        <v>18.2423093498289</v>
+        <v>26.48889933771806</v>
       </c>
       <c r="J4">
-        <v>5.041535581464627</v>
+        <v>8.901495643222651</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.86004422326755</v>
+        <v>20.23302919380935</v>
       </c>
       <c r="N4">
-        <v>12.74199967523535</v>
+        <v>19.31108547821958</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.64603096236539</v>
+        <v>16.18487196569146</v>
       </c>
       <c r="C5">
-        <v>15.58783187261574</v>
+        <v>12.63038978752224</v>
       </c>
       <c r="D5">
-        <v>9.561719935090677</v>
+        <v>14.19633992895493</v>
       </c>
       <c r="E5">
-        <v>9.320612792145564</v>
+        <v>15.02768314665851</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>41.23563985041717</v>
+        <v>48.3259914439362</v>
       </c>
       <c r="H5">
-        <v>12.82396965493693</v>
+        <v>19.00323353256422</v>
       </c>
       <c r="I5">
-        <v>18.19561150711252</v>
+        <v>26.50596955094305</v>
       </c>
       <c r="J5">
-        <v>5.052575933492014</v>
+        <v>8.906739868733629</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.63988121555878</v>
+        <v>20.2053965539254</v>
       </c>
       <c r="N5">
-        <v>12.8122220043365</v>
+        <v>19.33076857917101</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.57687025998434</v>
+        <v>16.1670678924775</v>
       </c>
       <c r="C6">
-        <v>15.53259720064389</v>
+        <v>12.61376088897986</v>
       </c>
       <c r="D6">
-        <v>9.549842839159348</v>
+        <v>14.19631651278078</v>
       </c>
       <c r="E6">
-        <v>9.31560875545315</v>
+        <v>15.02881228061327</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>41.15694615737019</v>
+        <v>48.31785733244855</v>
       </c>
       <c r="H6">
-        <v>12.8152177126677</v>
+        <v>19.00462136403905</v>
       </c>
       <c r="I6">
-        <v>18.18813647901569</v>
+        <v>26.50890105537463</v>
       </c>
       <c r="J6">
-        <v>5.054428634245388</v>
+        <v>8.907621566991594</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.60318517000686</v>
+        <v>20.20087450215101</v>
       </c>
       <c r="N6">
-        <v>12.82392422812587</v>
+        <v>19.33406674114801</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.05241138433775</v>
+        <v>16.29062862432858</v>
       </c>
       <c r="C7">
-        <v>15.92628734952039</v>
+        <v>12.72906350087582</v>
       </c>
       <c r="D7">
-        <v>9.632632114292662</v>
+        <v>14.19674046382738</v>
       </c>
       <c r="E7">
-        <v>9.350853249654634</v>
+        <v>15.02120478628404</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>41.70458507762711</v>
+        <v>48.37575301873541</v>
       </c>
       <c r="H7">
-        <v>12.87691818037971</v>
+        <v>18.99536979111868</v>
       </c>
       <c r="I7">
-        <v>18.24166072539061</v>
+        <v>26.48912304481613</v>
       </c>
       <c r="J7">
-        <v>5.04168317080504</v>
+        <v>8.901565638349554</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.85708447283433</v>
+        <v>20.23265209765535</v>
       </c>
       <c r="N7">
-        <v>12.74294394452019</v>
+        <v>19.31134893494222</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.04014282610216</v>
+        <v>16.83419475278802</v>
       </c>
       <c r="C8">
-        <v>17.59797222598853</v>
+        <v>13.23369778501249</v>
       </c>
       <c r="D8">
-        <v>10.00621000684976</v>
+        <v>14.20507621623986</v>
       </c>
       <c r="E8">
-        <v>9.519216330600106</v>
+        <v>14.99332968567645</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>44.15284716036797</v>
+        <v>48.66654966773219</v>
       </c>
       <c r="H8">
-        <v>13.17321021735519</v>
+        <v>18.96400680154187</v>
       </c>
       <c r="I8">
-        <v>18.51980714026141</v>
+        <v>26.41599624228685</v>
       </c>
       <c r="J8">
-        <v>4.988271637995265</v>
+        <v>8.876423232157551</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.95556437081787</v>
+        <v>20.38236637530688</v>
       </c>
       <c r="N8">
-        <v>12.39131582083322</v>
+        <v>19.21541960319883</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.54940723771744</v>
+        <v>17.88317145974918</v>
       </c>
       <c r="C9">
-        <v>20.5684642651835</v>
+        <v>14.1977216273788</v>
       </c>
       <c r="D9">
-        <v>10.76508629192893</v>
+        <v>14.24459131969207</v>
       </c>
       <c r="E9">
-        <v>9.897298692556527</v>
+        <v>14.95918072875848</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>49.04101168027632</v>
+        <v>49.36109862370121</v>
       </c>
       <c r="H9">
-        <v>13.84465738688041</v>
+        <v>18.93669737478534</v>
       </c>
       <c r="I9">
-        <v>19.22885387445337</v>
+        <v>26.3238854971813</v>
       </c>
       <c r="J9">
-        <v>4.893755460477738</v>
+        <v>8.832771911403153</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.01734514300926</v>
+        <v>20.70845732325498</v>
       </c>
       <c r="N9">
-        <v>11.71849963826242</v>
+        <v>19.04270909964912</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.90062721353828</v>
+        <v>18.63453197990462</v>
       </c>
       <c r="C10">
-        <v>22.57202674648622</v>
+        <v>14.88196137064332</v>
       </c>
       <c r="D10">
-        <v>11.33645383500735</v>
+        <v>14.28765491954683</v>
       </c>
       <c r="E10">
-        <v>10.2060214704551</v>
+        <v>14.94663150247069</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>52.67086151952841</v>
+        <v>49.94421215007688</v>
       </c>
       <c r="H10">
-        <v>14.39685562134277</v>
+        <v>18.93761925235812</v>
       </c>
       <c r="I10">
-        <v>19.86091558667843</v>
+        <v>26.2878467398828</v>
       </c>
       <c r="J10">
-        <v>4.830618347107217</v>
+        <v>8.804119598166247</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.54897471371724</v>
+        <v>20.96629011585312</v>
       </c>
       <c r="N10">
-        <v>11.23035941192563</v>
+        <v>18.9250962090979</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.92341561980075</v>
+        <v>18.97044005546319</v>
       </c>
       <c r="C11">
-        <v>23.44695936650649</v>
+        <v>15.18646698449157</v>
       </c>
       <c r="D11">
-        <v>11.59914999607222</v>
+        <v>14.31026354187414</v>
       </c>
       <c r="E11">
-        <v>10.35361108722901</v>
+        <v>14.94365004423478</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>54.32977051583143</v>
+        <v>50.22454282532425</v>
       </c>
       <c r="H11">
-        <v>14.66174027993468</v>
+        <v>18.9426170733602</v>
       </c>
       <c r="I11">
-        <v>20.17502512808771</v>
+        <v>26.27838949218908</v>
       </c>
       <c r="J11">
-        <v>4.803288719918189</v>
+        <v>8.791821310261595</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.34054500924267</v>
+        <v>21.0871890588365</v>
       </c>
       <c r="N11">
-        <v>11.00864426942413</v>
+        <v>18.87358094794005</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.3042161421513</v>
+        <v>19.09666423892909</v>
       </c>
       <c r="C12">
-        <v>23.77324390299241</v>
+        <v>15.3006895745246</v>
       </c>
       <c r="D12">
-        <v>11.69902429995365</v>
+        <v>14.3192556639958</v>
       </c>
       <c r="E12">
-        <v>10.41056815948301</v>
+        <v>14.94291329347112</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>54.95915900864736</v>
+        <v>50.33279163045654</v>
       </c>
       <c r="H12">
-        <v>14.76409720698342</v>
+        <v>18.94516893298768</v>
       </c>
       <c r="I12">
-        <v>20.29799939511139</v>
+        <v>26.27581048640169</v>
       </c>
       <c r="J12">
-        <v>4.793142692810997</v>
+        <v>8.787269632228851</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.63551776159065</v>
+        <v>21.1334574791892</v>
       </c>
       <c r="N12">
-        <v>10.92464502549751</v>
+        <v>18.85435741461328</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.22248957303</v>
+        <v>19.06952500976613</v>
       </c>
       <c r="C13">
-        <v>23.70319284492235</v>
+        <v>15.27613975888995</v>
       </c>
       <c r="D13">
-        <v>11.67749678793985</v>
+        <v>14.31729995139555</v>
       </c>
       <c r="E13">
-        <v>10.39825322130718</v>
+        <v>14.94305452021194</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>54.8235528188663</v>
+        <v>50.30938641582546</v>
       </c>
       <c r="H13">
-        <v>14.74196013500284</v>
+        <v>18.94459001249524</v>
       </c>
       <c r="I13">
-        <v>20.27133214928899</v>
+        <v>26.27632127703962</v>
       </c>
       <c r="J13">
-        <v>4.795318733209916</v>
+        <v>8.788245235243581</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.57219933631091</v>
+        <v>21.12347162992164</v>
       </c>
       <c r="N13">
-        <v>10.94273908979148</v>
+        <v>18.85848493314241</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.95487337203973</v>
+        <v>18.98084488124889</v>
       </c>
       <c r="C14">
-        <v>23.47390254335289</v>
+        <v>15.19588655221782</v>
       </c>
       <c r="D14">
-        <v>11.60735871446889</v>
+        <v>14.3109947176743</v>
       </c>
       <c r="E14">
-        <v>10.35827532057605</v>
+        <v>14.94358156983128</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>54.38152570524321</v>
+        <v>50.23340699669632</v>
       </c>
       <c r="H14">
-        <v>14.67011962156501</v>
+        <v>18.94281379959348</v>
       </c>
       <c r="I14">
-        <v>20.1850603532698</v>
+        <v>26.27815720426834</v>
       </c>
       <c r="J14">
-        <v>4.802449910063903</v>
+        <v>8.791444730476403</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.36490718272323</v>
+        <v>21.09098602588274</v>
       </c>
       <c r="N14">
-        <v>11.00173495813807</v>
+        <v>18.87199373014071</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.79011025123122</v>
+        <v>18.92639483929864</v>
       </c>
       <c r="C15">
-        <v>23.33280694128423</v>
+        <v>15.14658434965851</v>
       </c>
       <c r="D15">
-        <v>11.56444902438512</v>
+        <v>14.30718856559833</v>
       </c>
       <c r="E15">
-        <v>10.33392809955748</v>
+        <v>14.94395548705963</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>54.1109321244797</v>
+        <v>50.18713780641723</v>
       </c>
       <c r="H15">
-        <v>14.62638499829508</v>
+        <v>18.94181169652837</v>
       </c>
       <c r="I15">
-        <v>20.13274721925567</v>
+        <v>26.27941241544044</v>
       </c>
       <c r="J15">
-        <v>4.806844512566594</v>
+        <v>8.793418230581146</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.23731855956256</v>
+        <v>21.0711500500526</v>
       </c>
       <c r="N15">
-        <v>11.03786354255428</v>
+        <v>18.88030521901643</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.83286241567676</v>
+        <v>18.61244973189319</v>
       </c>
       <c r="C16">
-        <v>22.51413118335606</v>
+        <v>14.86191510675684</v>
       </c>
       <c r="D16">
-        <v>11.31934133936006</v>
+        <v>14.28623786091424</v>
       </c>
       <c r="E16">
-        <v>10.19652328258407</v>
+        <v>14.94688123806415</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>52.56260710836773</v>
+        <v>49.9261889636503</v>
       </c>
       <c r="H16">
-        <v>14.37982697778277</v>
+        <v>18.93738485231983</v>
       </c>
       <c r="I16">
-        <v>19.84093999191986</v>
+        <v>26.28860479930614</v>
       </c>
       <c r="J16">
-        <v>4.83243264760899</v>
+        <v>8.804938092833572</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.4965643097635</v>
+        <v>20.95845896605136</v>
       </c>
       <c r="N16">
-        <v>11.24484842546754</v>
+        <v>18.92850270676447</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.23378768402846</v>
+        <v>18.41825029425922</v>
       </c>
       <c r="C17">
-        <v>22.00269685882414</v>
+        <v>14.68546314770684</v>
       </c>
       <c r="D17">
-        <v>11.16968039215793</v>
+        <v>14.27415621228592</v>
       </c>
       <c r="E17">
-        <v>10.11408758497044</v>
+        <v>14.94937471724276</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>51.61474809973232</v>
+        <v>49.76991438124128</v>
       </c>
       <c r="H17">
-        <v>14.23213209589492</v>
+        <v>18.93584257994667</v>
       </c>
       <c r="I17">
-        <v>19.66887684305434</v>
+        <v>26.29602429104001</v>
       </c>
       <c r="J17">
-        <v>4.848488515166753</v>
+        <v>8.812193330726377</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.05188472246466</v>
+        <v>20.89022832966113</v>
       </c>
       <c r="N17">
-        <v>11.37185338324065</v>
+        <v>18.95857818352165</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.88479680697298</v>
+        <v>18.30600466643457</v>
       </c>
       <c r="C18">
-        <v>21.70508362708324</v>
+        <v>14.58334266266182</v>
       </c>
       <c r="D18">
-        <v>11.0838600785201</v>
+        <v>14.26749154000436</v>
       </c>
       <c r="E18">
-        <v>10.0673430295938</v>
+        <v>14.95106560666916</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>51.07027312497452</v>
+        <v>49.68145250087013</v>
       </c>
       <c r="H18">
-        <v>14.14846459908209</v>
+        <v>18.93538642632702</v>
       </c>
       <c r="I18">
-        <v>19.57239991859708</v>
+        <v>26.30094447959991</v>
       </c>
       <c r="J18">
-        <v>4.857854209603428</v>
+        <v>8.816435630982678</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.8354545683025</v>
+        <v>20.85132561893828</v>
       </c>
       <c r="N18">
-        <v>11.44494134907132</v>
+        <v>18.97606396476501</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.76586914529219</v>
+        <v>18.26791036773654</v>
       </c>
       <c r="C19">
-        <v>21.60371828017643</v>
+        <v>14.54866191743064</v>
       </c>
       <c r="D19">
-        <v>11.05484791233284</v>
+        <v>14.26528393280765</v>
       </c>
       <c r="E19">
-        <v>10.05163013546114</v>
+        <v>14.95168219703964</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>50.88604431803422</v>
+        <v>49.65174740276315</v>
       </c>
       <c r="H19">
-        <v>14.12035421106293</v>
+        <v>18.93530595589293</v>
       </c>
       <c r="I19">
-        <v>19.54015592940405</v>
+        <v>26.30272231832636</v>
       </c>
       <c r="J19">
-        <v>4.861047655120487</v>
+        <v>8.817883911686216</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.76194081737014</v>
+        <v>20.83821349840641</v>
       </c>
       <c r="N19">
-        <v>11.46969681607856</v>
+        <v>18.98201654441386</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.2980160210748</v>
+        <v>18.43898076898371</v>
       </c>
       <c r="C20">
-        <v>22.05749547672982</v>
+        <v>14.70431283158885</v>
       </c>
       <c r="D20">
-        <v>11.18558514387221</v>
+        <v>14.27541291590703</v>
       </c>
       <c r="E20">
-        <v>10.12279336639448</v>
+        <v>14.94908271292235</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>51.71557574832768</v>
+        <v>49.7864033048427</v>
       </c>
       <c r="H20">
-        <v>14.24772115661908</v>
+        <v>18.93596215087351</v>
       </c>
       <c r="I20">
-        <v>19.68693417799236</v>
+        <v>26.2951668864606</v>
       </c>
       <c r="J20">
-        <v>4.846765785561876</v>
+        <v>8.811413830979674</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.0918296165765</v>
+        <v>20.89745646014731</v>
       </c>
       <c r="N20">
-        <v>11.35833017152519</v>
+        <v>18.95535723889071</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.0336534623795</v>
+        <v>19.00691988195242</v>
       </c>
       <c r="C21">
-        <v>23.54138542385323</v>
+        <v>15.21948922964892</v>
       </c>
       <c r="D21">
-        <v>11.62794913061582</v>
+        <v>14.31283505695617</v>
       </c>
       <c r="E21">
-        <v>10.36998845914703</v>
+        <v>14.94341611676237</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>54.51132591573399</v>
+        <v>50.25566778071766</v>
       </c>
       <c r="H21">
-        <v>14.69116453551401</v>
+        <v>18.94331761836773</v>
       </c>
       <c r="I21">
-        <v>20.21028946197815</v>
+        <v>26.27759071239526</v>
       </c>
       <c r="J21">
-        <v>4.800349771114345</v>
+        <v>8.790502103269345</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.42592195779783</v>
+        <v>21.10051489127909</v>
       </c>
       <c r="N21">
-        <v>10.98440829958069</v>
+        <v>18.86801816929784</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.13018358318287</v>
+        <v>19.37235377981644</v>
       </c>
       <c r="C22">
-        <v>24.48197401794724</v>
+        <v>15.5498048896854</v>
       </c>
       <c r="D22">
-        <v>11.91938455012733</v>
+        <v>14.33980131497398</v>
       </c>
       <c r="E22">
-        <v>10.53779425783849</v>
+        <v>14.94199900554969</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>56.34562214348502</v>
+        <v>50.57452540006636</v>
       </c>
       <c r="H22">
-        <v>14.99298342225411</v>
+        <v>18.95196779936038</v>
       </c>
       <c r="I22">
-        <v>20.57591461436778</v>
+        <v>26.27194732216726</v>
       </c>
       <c r="J22">
-        <v>4.7711999942636</v>
+        <v>8.777449352348729</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.27581834893692</v>
+        <v>21.23604607880781</v>
       </c>
       <c r="N22">
-        <v>10.73974448233812</v>
+        <v>18.81259270343472</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.54832501722851</v>
+        <v>19.17788094349501</v>
       </c>
       <c r="C23">
-        <v>23.98255959967698</v>
+        <v>15.37412831967177</v>
       </c>
       <c r="D23">
-        <v>11.7636236491086</v>
+        <v>14.3251805977811</v>
       </c>
       <c r="E23">
-        <v>10.44764623092779</v>
+        <v>14.94254615613212</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>55.36590631326271</v>
+        <v>50.40325732769492</v>
       </c>
       <c r="H23">
-        <v>14.83076764415719</v>
+        <v>18.94699922287755</v>
       </c>
       <c r="I23">
-        <v>20.37854456124277</v>
+        <v>26.27442319932586</v>
       </c>
       <c r="J23">
-        <v>4.786648113713301</v>
+        <v>8.784359772591561</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.82468284200674</v>
+        <v>21.16346335509411</v>
       </c>
       <c r="N23">
-        <v>10.87038412056293</v>
+        <v>18.84202335466615</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.26899265593906</v>
+        <v>18.42961037330967</v>
       </c>
       <c r="C24">
-        <v>22.03273219717856</v>
+        <v>14.69579298595422</v>
       </c>
       <c r="D24">
-        <v>11.17839391447063</v>
+        <v>14.27484388397438</v>
       </c>
       <c r="E24">
-        <v>10.11885546458381</v>
+        <v>14.94921392646162</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>51.66999013520201</v>
+        <v>49.77894435073186</v>
       </c>
       <c r="H24">
-        <v>14.24066947273864</v>
+        <v>18.93590675186624</v>
       </c>
       <c r="I24">
-        <v>19.67876285824795</v>
+        <v>26.29555248029992</v>
       </c>
       <c r="J24">
-        <v>4.847544211455749</v>
+        <v>8.811766021104585</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.07377509394547</v>
+        <v>20.8941876107001</v>
       </c>
       <c r="N24">
-        <v>11.36444378733514</v>
+        <v>18.95681282043231</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.64069987965936</v>
+        <v>17.60217479637503</v>
       </c>
       <c r="C25">
-        <v>19.79698070568034</v>
+        <v>13.9405806652558</v>
       </c>
       <c r="D25">
-        <v>10.55723984467376</v>
+        <v>14.23142877994076</v>
       </c>
       <c r="E25">
-        <v>9.789713674249894</v>
+        <v>14.96621867096778</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>47.71120696823752</v>
+        <v>49.16017684280662</v>
       </c>
       <c r="H25">
-        <v>13.65295028330423</v>
+        <v>18.94040842200774</v>
       </c>
       <c r="I25">
-        <v>19.01833755616299</v>
+        <v>26.34327304864178</v>
       </c>
       <c r="J25">
-        <v>4.91822415871967</v>
+        <v>8.843978467210217</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.47041924777368</v>
+        <v>20.616917103144</v>
       </c>
       <c r="N25">
-        <v>11.89911795042298</v>
+        <v>19.08779437754183</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_85/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_85/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.98068156391676</v>
+        <v>21.55207905217258</v>
       </c>
       <c r="C2">
-        <v>13.36903856161564</v>
+        <v>18.02981329585488</v>
       </c>
       <c r="D2">
-        <v>14.2089050573277</v>
+        <v>10.10931233154889</v>
       </c>
       <c r="E2">
-        <v>14.98716360428322</v>
+        <v>9.56801546417798</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>48.75384679447161</v>
+        <v>44.82286981184188</v>
       </c>
       <c r="H2">
-        <v>18.95781677691406</v>
+        <v>13.2594711116628</v>
       </c>
       <c r="I2">
-        <v>26.39963883892306</v>
+        <v>18.60581180410998</v>
       </c>
       <c r="J2">
-        <v>8.869994500130813</v>
+        <v>4.974489835747558</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.42518549093617</v>
+        <v>17.24733539869482</v>
       </c>
       <c r="N2">
-        <v>19.19047448283403</v>
+        <v>12.29731157461908</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.55480072689673</v>
+        <v>20.03760593744498</v>
       </c>
       <c r="C3">
-        <v>12.97481776453427</v>
+        <v>16.75381508058095</v>
       </c>
       <c r="D3">
-        <v>14.19956032489629</v>
+        <v>9.812355490635785</v>
       </c>
       <c r="E3">
-        <v>15.00660191405924</v>
+        <v>9.430077735985577</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>48.51016893378394</v>
+        <v>42.88674969513664</v>
       </c>
       <c r="H3">
-        <v>18.9783591754774</v>
+        <v>13.01605581457173</v>
       </c>
       <c r="I3">
-        <v>26.45095992346798</v>
+        <v>18.36848249355335</v>
       </c>
       <c r="J3">
-        <v>8.889068909035265</v>
+        <v>5.015234285231304</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20.30350687013461</v>
+        <v>16.39436929124521</v>
       </c>
       <c r="N3">
-        <v>19.26399298600568</v>
+        <v>12.57131754027173</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.29207405841201</v>
+        <v>19.05791480396057</v>
       </c>
       <c r="C4">
-        <v>12.73041093641418</v>
+        <v>15.93090428842598</v>
       </c>
       <c r="D4">
-        <v>14.19674896343083</v>
+        <v>9.633605537213656</v>
       </c>
       <c r="E4">
-        <v>15.02111888294094</v>
+        <v>9.351272588769524</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>48.37644988977072</v>
+        <v>41.71101196623459</v>
       </c>
       <c r="H4">
-        <v>18.99526670356897</v>
+        <v>12.87765308740155</v>
       </c>
       <c r="I4">
-        <v>26.48889933771806</v>
+        <v>18.24230934982877</v>
       </c>
       <c r="J4">
-        <v>8.901495643222651</v>
+        <v>5.041535581464755</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20.23302919380935</v>
+        <v>15.86004422326755</v>
       </c>
       <c r="N4">
-        <v>19.31108547821958</v>
+        <v>12.74199967523529</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.18487196569146</v>
+        <v>18.64603096236537</v>
       </c>
       <c r="C5">
-        <v>12.63038978752224</v>
+        <v>15.58783187261572</v>
       </c>
       <c r="D5">
-        <v>14.19633992895493</v>
+        <v>9.561719935090663</v>
       </c>
       <c r="E5">
-        <v>15.02768314665851</v>
+        <v>9.320612792145624</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>48.3259914439362</v>
+        <v>41.23563985041726</v>
       </c>
       <c r="H5">
-        <v>19.00323353256422</v>
+        <v>12.82396965493698</v>
       </c>
       <c r="I5">
-        <v>26.50596955094305</v>
+        <v>18.19561150711256</v>
       </c>
       <c r="J5">
-        <v>8.906739868733629</v>
+        <v>5.052575933492052</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20.2053965539254</v>
+        <v>15.63988121555883</v>
       </c>
       <c r="N5">
-        <v>19.33076857917101</v>
+        <v>12.8122220043365</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.1670678924775</v>
+        <v>18.57687025998434</v>
       </c>
       <c r="C6">
-        <v>12.61376088897986</v>
+        <v>15.53259720064388</v>
       </c>
       <c r="D6">
-        <v>14.19631651278078</v>
+        <v>9.549842839159259</v>
       </c>
       <c r="E6">
-        <v>15.02881228061327</v>
+        <v>9.31560875545304</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>48.31785733244855</v>
+        <v>41.15694615737018</v>
       </c>
       <c r="H6">
-        <v>19.00462136403905</v>
+        <v>12.81521771266778</v>
       </c>
       <c r="I6">
-        <v>26.50890105537463</v>
+        <v>18.18813647901566</v>
       </c>
       <c r="J6">
-        <v>8.907621566991594</v>
+        <v>5.054428634245357</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>20.20087450215101</v>
+        <v>15.60318517000684</v>
       </c>
       <c r="N6">
-        <v>19.33406674114801</v>
+        <v>12.82392422812586</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.29062862432858</v>
+        <v>19.05241138433769</v>
       </c>
       <c r="C7">
-        <v>12.72906350087582</v>
+        <v>15.92628734952043</v>
       </c>
       <c r="D7">
-        <v>14.19674046382738</v>
+        <v>9.632632114292644</v>
       </c>
       <c r="E7">
-        <v>15.02120478628404</v>
+        <v>9.350853249654584</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>48.37575301873541</v>
+        <v>41.70458507762719</v>
       </c>
       <c r="H7">
-        <v>18.99536979111868</v>
+        <v>12.87691818037972</v>
       </c>
       <c r="I7">
-        <v>26.48912304481613</v>
+        <v>18.24166072539063</v>
       </c>
       <c r="J7">
-        <v>8.901565638349554</v>
+        <v>5.041683170804976</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>20.23265209765535</v>
+        <v>15.85708447283434</v>
       </c>
       <c r="N7">
-        <v>19.31134893494222</v>
+        <v>12.74294394452016</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.83419475278802</v>
+        <v>21.0401428261022</v>
       </c>
       <c r="C8">
-        <v>13.23369778501249</v>
+        <v>17.59797222598859</v>
       </c>
       <c r="D8">
-        <v>14.20507621623986</v>
+        <v>10.0062100068498</v>
       </c>
       <c r="E8">
-        <v>14.99332968567645</v>
+        <v>9.519216330600056</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>48.66654966773219</v>
+        <v>44.15284716036793</v>
       </c>
       <c r="H8">
-        <v>18.96400680154187</v>
+        <v>13.17321021735514</v>
       </c>
       <c r="I8">
-        <v>26.41599624228685</v>
+        <v>18.51980714026138</v>
       </c>
       <c r="J8">
-        <v>8.876423232157551</v>
+        <v>4.988271637995167</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20.38236637530688</v>
+        <v>16.95556437081783</v>
       </c>
       <c r="N8">
-        <v>19.21541960319883</v>
+        <v>12.3913158208332</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.88317145974918</v>
+        <v>24.54940723771753</v>
       </c>
       <c r="C9">
-        <v>14.1977216273788</v>
+        <v>20.56846426518356</v>
       </c>
       <c r="D9">
-        <v>14.24459131969207</v>
+        <v>10.76508629192905</v>
       </c>
       <c r="E9">
-        <v>14.95918072875848</v>
+        <v>9.89729869255668</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>49.36109862370121</v>
+        <v>49.0410116802764</v>
       </c>
       <c r="H9">
-        <v>18.93669737478534</v>
+        <v>13.84465738688036</v>
       </c>
       <c r="I9">
-        <v>26.3238854971813</v>
+        <v>19.22885387445333</v>
       </c>
       <c r="J9">
-        <v>8.832771911403153</v>
+        <v>4.8937554604778</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.70845732325498</v>
+        <v>19.01734514300927</v>
       </c>
       <c r="N9">
-        <v>19.04270909964912</v>
+        <v>11.71849963826236</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.63453197990462</v>
+        <v>26.90062721353832</v>
       </c>
       <c r="C10">
-        <v>14.88196137064332</v>
+        <v>22.57202674648622</v>
       </c>
       <c r="D10">
-        <v>14.28765491954683</v>
+        <v>11.3364538350074</v>
       </c>
       <c r="E10">
-        <v>14.94663150247069</v>
+        <v>10.20602147045513</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>49.94421215007688</v>
+        <v>52.67086151952834</v>
       </c>
       <c r="H10">
-        <v>18.93761925235812</v>
+        <v>14.39685562134271</v>
       </c>
       <c r="I10">
-        <v>26.2878467398828</v>
+        <v>19.86091558667836</v>
       </c>
       <c r="J10">
-        <v>8.804119598166247</v>
+        <v>4.830618347107183</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.96629011585312</v>
+        <v>20.54897471371721</v>
       </c>
       <c r="N10">
-        <v>18.9250962090979</v>
+        <v>11.23035941192557</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.97044005546319</v>
+        <v>27.92341561980081</v>
       </c>
       <c r="C11">
-        <v>15.18646698449157</v>
+        <v>23.44695936650648</v>
       </c>
       <c r="D11">
-        <v>14.31026354187414</v>
+        <v>11.5991499960722</v>
       </c>
       <c r="E11">
-        <v>14.94365004423478</v>
+        <v>10.35361108722905</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>50.22454282532425</v>
+        <v>54.32977051583146</v>
       </c>
       <c r="H11">
-        <v>18.9426170733602</v>
+        <v>14.66174027993467</v>
       </c>
       <c r="I11">
-        <v>26.27838949218908</v>
+        <v>20.17502512808768</v>
       </c>
       <c r="J11">
-        <v>8.791821310261595</v>
+        <v>4.803288719918249</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.0871890588365</v>
+        <v>21.3405450092427</v>
       </c>
       <c r="N11">
-        <v>18.87358094794005</v>
+        <v>11.0086442694241</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.09666423892909</v>
+        <v>28.30421614215124</v>
       </c>
       <c r="C12">
-        <v>15.3006895745246</v>
+        <v>23.77324390299231</v>
       </c>
       <c r="D12">
-        <v>14.3192556639958</v>
+        <v>11.69902429995363</v>
       </c>
       <c r="E12">
-        <v>14.94291329347112</v>
+        <v>10.41056815948298</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>50.33279163045654</v>
+        <v>54.95915900864738</v>
       </c>
       <c r="H12">
-        <v>18.94516893298768</v>
+        <v>14.76409720698348</v>
       </c>
       <c r="I12">
-        <v>26.27581048640169</v>
+        <v>20.29799939511149</v>
       </c>
       <c r="J12">
-        <v>8.787269632228851</v>
+        <v>4.79314269281091</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.1334574791892</v>
+        <v>21.63551776159061</v>
       </c>
       <c r="N12">
-        <v>18.85435741461328</v>
+        <v>10.92464502549758</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.06952500976613</v>
+        <v>28.22248957303013</v>
       </c>
       <c r="C13">
-        <v>15.27613975888995</v>
+        <v>23.70319284492237</v>
       </c>
       <c r="D13">
-        <v>14.31729995139555</v>
+        <v>11.67749678793996</v>
       </c>
       <c r="E13">
-        <v>14.94305452021194</v>
+        <v>10.39825322130728</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>50.30938641582546</v>
+        <v>54.8235528188665</v>
       </c>
       <c r="H13">
-        <v>18.94459001249524</v>
+        <v>14.74196013500291</v>
       </c>
       <c r="I13">
-        <v>26.27632127703962</v>
+        <v>20.27133214928899</v>
       </c>
       <c r="J13">
-        <v>8.788245235243581</v>
+        <v>4.795318733209919</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.12347162992164</v>
+        <v>21.57219933631096</v>
       </c>
       <c r="N13">
-        <v>18.85848493314241</v>
+        <v>10.94273908979142</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.98084488124889</v>
+        <v>27.95487337203966</v>
       </c>
       <c r="C14">
-        <v>15.19588655221782</v>
+        <v>23.47390254335279</v>
       </c>
       <c r="D14">
-        <v>14.3109947176743</v>
+        <v>11.60735871446894</v>
       </c>
       <c r="E14">
-        <v>14.94358156983128</v>
+        <v>10.35827532057604</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>50.23340699669632</v>
+        <v>54.38152570524327</v>
       </c>
       <c r="H14">
-        <v>18.94281379959348</v>
+        <v>14.67011962156509</v>
       </c>
       <c r="I14">
-        <v>26.27815720426834</v>
+        <v>20.18506035326991</v>
       </c>
       <c r="J14">
-        <v>8.791444730476403</v>
+        <v>4.80244991006381</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.09098602588274</v>
+        <v>21.36490718272318</v>
       </c>
       <c r="N14">
-        <v>18.87199373014071</v>
+        <v>11.00173495813818</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.92639483929864</v>
+        <v>27.79011025123124</v>
       </c>
       <c r="C15">
-        <v>15.14658434965851</v>
+        <v>23.33280694128439</v>
       </c>
       <c r="D15">
-        <v>14.30718856559833</v>
+        <v>11.56444902438516</v>
       </c>
       <c r="E15">
-        <v>14.94395548705963</v>
+        <v>10.33392809955754</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>50.18713780641723</v>
+        <v>54.11093212447986</v>
       </c>
       <c r="H15">
-        <v>18.94181169652837</v>
+        <v>14.62638499829512</v>
       </c>
       <c r="I15">
-        <v>26.27941241544044</v>
+        <v>20.13274721925572</v>
       </c>
       <c r="J15">
-        <v>8.793418230581146</v>
+        <v>4.806844512566679</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.0711500500526</v>
+        <v>21.23731855956256</v>
       </c>
       <c r="N15">
-        <v>18.88030521901643</v>
+        <v>11.03786354255429</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.61244973189319</v>
+        <v>26.8328624156768</v>
       </c>
       <c r="C16">
-        <v>14.86191510675684</v>
+        <v>22.51413118335597</v>
       </c>
       <c r="D16">
-        <v>14.28623786091424</v>
+        <v>11.31934133936004</v>
       </c>
       <c r="E16">
-        <v>14.94688123806415</v>
+        <v>10.19652328258399</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>49.9261889636503</v>
+        <v>52.56260710836782</v>
       </c>
       <c r="H16">
-        <v>18.93738485231983</v>
+        <v>14.37982697778285</v>
       </c>
       <c r="I16">
-        <v>26.28860479930614</v>
+        <v>19.84093999191991</v>
       </c>
       <c r="J16">
-        <v>8.804938092833572</v>
+        <v>4.832432647608932</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.95845896605136</v>
+        <v>20.49656430976353</v>
       </c>
       <c r="N16">
-        <v>18.92850270676447</v>
+        <v>11.24484842546761</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.41825029425922</v>
+        <v>26.23378768402859</v>
       </c>
       <c r="C17">
-        <v>14.68546314770684</v>
+        <v>22.00269685882418</v>
       </c>
       <c r="D17">
-        <v>14.27415621228592</v>
+        <v>11.16968039215799</v>
       </c>
       <c r="E17">
-        <v>14.94937471724276</v>
+        <v>10.11408758497045</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>49.76991438124128</v>
+        <v>51.61474809973243</v>
       </c>
       <c r="H17">
-        <v>18.93584257994667</v>
+        <v>14.23213209589485</v>
       </c>
       <c r="I17">
-        <v>26.29602429104001</v>
+        <v>19.66887684305426</v>
       </c>
       <c r="J17">
-        <v>8.812193330726377</v>
+        <v>4.848488515166756</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.89022832966113</v>
+        <v>20.05188472246465</v>
       </c>
       <c r="N17">
-        <v>18.95857818352165</v>
+        <v>11.37185338324056</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.30600466643457</v>
+        <v>25.88479680697303</v>
       </c>
       <c r="C18">
-        <v>14.58334266266182</v>
+        <v>21.7050836270833</v>
       </c>
       <c r="D18">
-        <v>14.26749154000436</v>
+        <v>11.08386007852008</v>
       </c>
       <c r="E18">
-        <v>14.95106560666916</v>
+        <v>10.06734302959378</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>49.68145250087013</v>
+        <v>51.07027312497468</v>
       </c>
       <c r="H18">
-        <v>18.93538642632702</v>
+        <v>14.14846459908207</v>
       </c>
       <c r="I18">
-        <v>26.30094447959991</v>
+        <v>19.57239991859708</v>
       </c>
       <c r="J18">
-        <v>8.816435630982678</v>
+        <v>4.857854209603457</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.85132561893828</v>
+        <v>19.83545456830252</v>
       </c>
       <c r="N18">
-        <v>18.97606396476501</v>
+        <v>11.44494134907132</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.26791036773654</v>
+        <v>25.76586914529216</v>
       </c>
       <c r="C19">
-        <v>14.54866191743064</v>
+        <v>21.60371828017648</v>
       </c>
       <c r="D19">
-        <v>14.26528393280765</v>
+        <v>11.05484791233279</v>
       </c>
       <c r="E19">
-        <v>14.95168219703964</v>
+        <v>10.05163013546115</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>49.65174740276315</v>
+        <v>50.88604431803424</v>
       </c>
       <c r="H19">
-        <v>18.93530595589293</v>
+        <v>14.12035421106294</v>
       </c>
       <c r="I19">
-        <v>26.30272231832636</v>
+        <v>19.54015592940405</v>
       </c>
       <c r="J19">
-        <v>8.817883911686216</v>
+        <v>4.861047655120488</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.83821349840641</v>
+        <v>19.76194081737014</v>
       </c>
       <c r="N19">
-        <v>18.98201654441386</v>
+        <v>11.46969681607853</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.43898076898371</v>
+        <v>26.29801602107479</v>
       </c>
       <c r="C20">
-        <v>14.70431283158885</v>
+        <v>22.05749547672972</v>
       </c>
       <c r="D20">
-        <v>14.27541291590703</v>
+        <v>11.18558514387214</v>
       </c>
       <c r="E20">
-        <v>14.94908271292235</v>
+        <v>10.12279336639444</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>49.7864033048427</v>
+        <v>51.71557574832768</v>
       </c>
       <c r="H20">
-        <v>18.93596215087351</v>
+        <v>14.24772115661908</v>
       </c>
       <c r="I20">
-        <v>26.2951668864606</v>
+        <v>19.68693417799227</v>
       </c>
       <c r="J20">
-        <v>8.811413830979674</v>
+        <v>4.846765785561871</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.89745646014731</v>
+        <v>20.09182961657651</v>
       </c>
       <c r="N20">
-        <v>18.95535723889071</v>
+        <v>11.35833017152502</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.00691988195242</v>
+        <v>28.03365346237944</v>
       </c>
       <c r="C21">
-        <v>15.21948922964892</v>
+        <v>23.54138542385332</v>
       </c>
       <c r="D21">
-        <v>14.31283505695617</v>
+        <v>11.62794913061579</v>
       </c>
       <c r="E21">
-        <v>14.94341611676237</v>
+        <v>10.36998845914712</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>50.25566778071766</v>
+        <v>54.51132591573398</v>
       </c>
       <c r="H21">
-        <v>18.94331761836773</v>
+        <v>14.69116453551397</v>
       </c>
       <c r="I21">
-        <v>26.27759071239526</v>
+        <v>20.21028946197813</v>
       </c>
       <c r="J21">
-        <v>8.790502103269345</v>
+        <v>4.8003497711144</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.10051489127909</v>
+        <v>21.4259219577978</v>
       </c>
       <c r="N21">
-        <v>18.86801816929784</v>
+        <v>10.98440829958065</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.37235377981644</v>
+        <v>29.13018358318289</v>
       </c>
       <c r="C22">
-        <v>15.5498048896854</v>
+        <v>24.48197401794736</v>
       </c>
       <c r="D22">
-        <v>14.33980131497398</v>
+        <v>11.91938455012727</v>
       </c>
       <c r="E22">
-        <v>14.94199900554969</v>
+        <v>10.53779425783847</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>50.57452540006636</v>
+        <v>56.34562214348513</v>
       </c>
       <c r="H22">
-        <v>18.95196779936038</v>
+        <v>14.99298342225412</v>
       </c>
       <c r="I22">
-        <v>26.27194732216726</v>
+        <v>20.57591461436778</v>
       </c>
       <c r="J22">
-        <v>8.777449352348729</v>
+        <v>4.771199994263569</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.23604607880781</v>
+        <v>22.27581834893698</v>
       </c>
       <c r="N22">
-        <v>18.81259270343472</v>
+        <v>10.73974448233802</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.17788094349501</v>
+        <v>28.5483250172286</v>
       </c>
       <c r="C23">
-        <v>15.37412831967177</v>
+        <v>23.98255959967684</v>
       </c>
       <c r="D23">
-        <v>14.3251805977811</v>
+        <v>11.76362364910858</v>
       </c>
       <c r="E23">
-        <v>14.94254615613212</v>
+        <v>10.44764623092779</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>50.40325732769492</v>
+        <v>55.3659063132628</v>
       </c>
       <c r="H23">
-        <v>18.94699922287755</v>
+        <v>14.83076764415721</v>
       </c>
       <c r="I23">
-        <v>26.27442319932586</v>
+        <v>20.37854456124279</v>
       </c>
       <c r="J23">
-        <v>8.784359772591561</v>
+        <v>4.786648113713335</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.16346335509411</v>
+        <v>21.82468284200677</v>
       </c>
       <c r="N23">
-        <v>18.84202335466615</v>
+        <v>10.87038412056297</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.42961037330967</v>
+        <v>26.26899265593913</v>
       </c>
       <c r="C24">
-        <v>14.69579298595422</v>
+        <v>22.03273219717856</v>
       </c>
       <c r="D24">
-        <v>14.27484388397438</v>
+        <v>11.17839391447068</v>
       </c>
       <c r="E24">
-        <v>14.94921392646162</v>
+        <v>10.11885546458386</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>49.77894435073186</v>
+        <v>51.66999013520189</v>
       </c>
       <c r="H24">
-        <v>18.93590675186624</v>
+        <v>14.24066947273858</v>
       </c>
       <c r="I24">
-        <v>26.29555248029992</v>
+        <v>19.6787628582478</v>
       </c>
       <c r="J24">
-        <v>8.811766021104585</v>
+        <v>4.847544211455776</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.8941876107001</v>
+        <v>20.07377509394546</v>
       </c>
       <c r="N24">
-        <v>18.95681282043231</v>
+        <v>11.36444378733504</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.60217479637503</v>
+        <v>23.64069987965934</v>
       </c>
       <c r="C25">
-        <v>13.9405806652558</v>
+        <v>19.79698070568033</v>
       </c>
       <c r="D25">
-        <v>14.23142877994076</v>
+        <v>10.55723984467376</v>
       </c>
       <c r="E25">
-        <v>14.96621867096778</v>
+        <v>9.789713674249938</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>49.16017684280662</v>
+        <v>47.71120696823755</v>
       </c>
       <c r="H25">
-        <v>18.94040842200774</v>
+        <v>13.65295028330426</v>
       </c>
       <c r="I25">
-        <v>26.34327304864178</v>
+        <v>19.01833755616305</v>
       </c>
       <c r="J25">
-        <v>8.843978467210217</v>
+        <v>4.91822415871973</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.616917103144</v>
+        <v>18.47041924777369</v>
       </c>
       <c r="N25">
-        <v>19.08779437754183</v>
+        <v>11.89911795042302</v>
       </c>
       <c r="O25">
         <v>0</v>
